--- a/tables/gdd_approach/TableS2_gdd_dietary_factors.xlsx
+++ b/tables/gdd_approach/TableS2_gdd_dietary_factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CADC2DAE-4385-D34B-A91D-2676340CBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6A5BC5E6-E998-6647-B876-6929E766C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
@@ -1061,7 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1600,5 +1602,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>